--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T13:23:12+00:00</t>
+    <t>2021-09-20T17:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -388,83 +388,91 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>12</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>31</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B23" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:40:53+00:00</t>
+    <t>2021-09-21T08:52:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T08:52:01+00:00</t>
+    <t>2021-09-21T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T15:01:56+00:00</t>
+    <t>2021-09-22T07:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T07:45:14+00:00</t>
+    <t>2021-09-22T09:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T09:12:54+00:00</t>
+    <t>2021-09-22T13:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T13:43:36+00:00</t>
+    <t>2021-09-22T15:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T15:57:27+00:00</t>
+    <t>2021-09-23T11:40:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T11:40:39+00:00</t>
+    <t>2021-09-23T13:45:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T13:45:12+00:00</t>
+    <t>2021-09-23T14:45:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T14:45:21+00:00</t>
+    <t>2021-09-23T15:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:34:19+00:00</t>
+    <t>2021-09-24T07:01:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T07:01:44+00:00</t>
+    <t>2021-09-24T07:40:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T07:40:05+00:00</t>
+    <t>2021-09-24T08:26:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T08:26:22+00:00</t>
+    <t>2021-09-24T11:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T11:35:02+00:00</t>
+    <t>2021-09-24T14:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-24T14:58:19+00:00</t>
+    <t>2021-10-06T12:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:45:34+00:00</t>
+    <t>2021-10-06T12:46:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:46:26+00:00</t>
+    <t>2021-10-07T14:16:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T14:16:54+00:00</t>
+    <t>2021-10-07T15:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-07T15:34:09+00:00</t>
+    <t>2021-10-08T06:35:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-08T06:35:20+00:00</t>
+    <t>2021-10-15T15:30:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-15T15:30:39+00:00</t>
+    <t>2021-10-18T11:47:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T11:47:25+00:00</t>
+    <t>2021-10-19T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:13:26+00:00</t>
+    <t>2021-10-19T12:28:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T12:28:21+00:00</t>
+    <t>2021-10-19T13:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T13:42:10+00:00</t>
+    <t>2021-10-19T15:13:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-19T15:13:29+00:00</t>
+    <t>2021-10-21T11:58:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-21T11:58:09+00:00</t>
+    <t>2021-10-29T12:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-29T12:52:32+00:00</t>
+    <t>2021-11-10T15:45:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-10T15:45:42+00:00</t>
+    <t>2021-12-01T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T10:36:06+00:00</t>
+    <t>2021-12-01T15:42:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T15:42:29+00:00</t>
+    <t>2022-01-07T08:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:56:15+00:00</t>
+    <t>2022-01-07T09:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T09:52:39+00:00</t>
+    <t>2022-01-14T15:28:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T15:28:45+00:00</t>
+    <t>2022-01-17T09:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T09:35:45+00:00</t>
+    <t>2022-01-17T15:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T15:12:34+00:00</t>
+    <t>2022-01-18T14:53:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:53:37+00:00</t>
+    <t>2022-01-18T14:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:54:46+00:00</t>
+    <t>2022-01-19T12:18:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T12:18:41+00:00</t>
+    <t>2022-01-20T09:35:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T09:35:42+00:00</t>
+    <t>2022-01-25T15:16:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T15:16:25+00:00</t>
+    <t>2022-02-01T15:37:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-01T15:37:33+00:00</t>
+    <t>2022-02-08T09:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:26:27+00:00</t>
+    <t>2022-02-08T09:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:35:25+00:00</t>
+    <t>2022-02-08T09:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:37:29+00:00</t>
+    <t>2022-02-08T10:01:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:01:45+00:00</t>
+    <t>2022-02-08T10:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:08:35+00:00</t>
+    <t>2022-02-08T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T13:47:48+00:00</t>
+    <t>2022-02-08T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T14:21:10+00:00</t>
+    <t>2022-02-10T10:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:05:03+00:00</t>
+    <t>2022-02-10T10:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:07:35+00:00</t>
+    <t>2022-02-10T10:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:17:28+00:00</t>
+    <t>2022-02-10T10:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:18:13+00:00</t>
+    <t>2022-02-10T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:14:34+00:00</t>
+    <t>2022-02-10T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:16:39+00:00</t>
+    <t>2022-02-14T08:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:27:15+00:00</t>
+    <t>2022-02-14T08:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:33:39+00:00</t>
+    <t>2022-02-14T09:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:12:03+00:00</t>
+    <t>2022-02-14T09:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:13:01+00:00</t>
+    <t>2022-02-14T10:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:40:00+00:00</t>
+    <t>2022-02-14T10:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:44:55+00:00</t>
+    <t>2022-02-14T11:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:09+00:00</t>
+    <t>2022-02-14T11:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:42+00:00</t>
+    <t>2022-02-17T07:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:14+00:00</t>
+    <t>2022-02-17T07:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:49+00:00</t>
+    <t>2022-02-17T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:28+00:00</t>
+    <t>2022-02-17T10:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:34+00:00</t>
+    <t>2022-02-22T14:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:45:52+00:00</t>
+    <t>2022-02-22T16:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:17:43+00:00</t>
+    <t>2022-02-22T16:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:23:19+00:00</t>
+    <t>2022-02-23T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T09:46:03+00:00</t>
+    <t>2022-02-23T15:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:29:02+00:00</t>
+    <t>2022-02-23T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:34:51+00:00</t>
+    <t>2022-03-02T14:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T14:57:26+00:00</t>
+    <t>2022-03-23T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/CodeSystem-be-nursing-medication-category.xlsx
+++ b/branches/CodeSystem-be-nursing-medication-category.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-nursing-medication-category</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/CodeSystem/be-nursing-medication-category</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T15:53:34+00:00</t>
+    <t>2022-05-03T10:04:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>Level</t>
@@ -472,7 +475,9 @@
       <c r="A23" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" t="s" s="2">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -489,123 +494,123 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2"/>
     </row>
